--- a/static/RCM_Generate.xlsx
+++ b/static/RCM_Generate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\snowball\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA544AB-50EF-4C66-ADC6-5831244EE670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29466DFD-4AB6-48EB-9ADE-3BBFD4EA2347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="RCM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RCM!$A$7:$BQ$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RCM!$A$7:$BQ$122</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5706" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5852" uniqueCount="444">
   <si>
     <t>ITGC Risk &amp; Control Matrix</t>
   </si>
@@ -1774,13 +1774,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>1. 시스템의 OS 또는 OS접근제어툴에서 계정생성이력 테이블 또는 화면을 식별함
-2. 해당 테이블 또는 화면의 이력조회 Parameter에 아래의 조건을 입력함으로써 모집단의 완전성을 확보함
- - 계정생성 일자 : 테스트 대상기간
- - 조회대상 : 시스템 OS</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 테스트 기간 동안 신규 부여된 OS 접근권한 목록을 조회하고, 조회화면 및 조회 결과를 문서화한다.
 2. 위의 1.에서 조회된 모집단의 발생빈도에 따라 샘플 Guide의 샘플 수를 적용하여 샘플을 선정한다.
 3. 샘플에 대하여 승인권자의 승인을 득하였는지 여부를 확인한다.</t>
@@ -1788,17 +1781,6 @@
   </si>
   <si>
     <t>OS 관리자 List</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. OS 또는 OS 접근제어 Tool에서 슈퍼권한자 목록을 확인함
-2. 해당 권한을 보유한 인원의 부서, 직책, 직무 등을 검토하여 적절성 여부를 확인한다.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. OS서버 또는 OS 접근제어 Tool에 설정된 패스워드를 확인하여 아래 기준으로 설정되어 있는지 여부를 검토한다. 
- 1) 복잡성: 문자, 숫자, 특수문자 포함
- 2) 최소 길이: 8자리 이상</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -1931,6 +1913,46 @@
 SELECT user, host
   FROM mysql.user
  WHERE super_priv='Y';</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. OS접근제어툴에서 계정생성이력 테이블 또는 화면을 식별함
+2. 해당 테이블 또는 화면의 이력조회 Parameter에 아래의 조건을 입력함으로써 모집단의 완전성을 확보함
+ - 계정생성 일자 : 테스트 대상기간
+ - 조회대상 : 시스템 OS</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시스템의 OS에서 계정생성이력 테이블 또는 화면을 식별함
+2. 해당 테이블 또는 화면의 이력조회 Parameter에 아래의 조건을 입력함으로써 모집단의 완전성을 확보함
+ - 계정생성 일자 : 테스트 대상기간
+ - 조회대상 : 시스템 OS</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS_Tool</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. OS 접근제어 Tool에 설정된 패스워드를 확인하여 아래 기준으로 설정되어 있는지 여부를 검토한다. 
+ 1) 복잡성: 문자, 숫자, 특수문자 포함
+ 2) 최소 길이: 8자리 이상</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. OS서버에 설정된 패스워드를 확인하여 아래 기준으로 설정되어 있는지 여부를 검토한다. 
+ 1) 복잡성: 문자, 숫자, 특수문자 포함
+ 2) 최소 길이: 8자리 이상</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. OS 접근제어 Tool에서 슈퍼권한자 목록을 확인함
+2. 해당 권한을 보유한 인원의 부서, 직책, 직무 등을 검토하여 적절성 여부를 확인한다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. OS에서 슈퍼권한자 목록을 확인함
+2. 해당 권한을 보유한 인원의 부서, 직책, 직무 등을 검토하여 적절성 여부를 확인한다.</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -2199,23 +2221,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2223,7 +2230,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2608,11 +2630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDF129F-9EE4-4849-BFC9-E5D387532C2F}">
-  <dimension ref="B2:BS119"/>
+  <dimension ref="B2:BS122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BP51" sqref="BP51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2773,218 +2795,218 @@
       <c r="BR3" s="1"/>
     </row>
     <row r="4" spans="2:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="24" t="s">
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="24" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="26"/>
-      <c r="BH4" s="24" t="s">
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="BI4" s="27"/>
-      <c r="BJ4" s="27"/>
-      <c r="BK4" s="27"/>
-      <c r="BL4" s="27"/>
-      <c r="BM4" s="27"/>
-      <c r="BN4" s="27"/>
-      <c r="BO4" s="27"/>
-      <c r="BP4" s="27"/>
-      <c r="BQ4" s="27"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
+      <c r="BL4" s="22"/>
+      <c r="BM4" s="22"/>
+      <c r="BN4" s="22"/>
+      <c r="BO4" s="22"/>
+      <c r="BP4" s="22"/>
+      <c r="BQ4" s="22"/>
       <c r="BR4" s="19"/>
       <c r="BS4" s="19"/>
     </row>
     <row r="5" spans="2:71" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="24" t="s">
+      <c r="B5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="27" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="29" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="24" t="s">
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="26"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="24"/>
       <c r="AF5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AG5" s="24" t="s">
+      <c r="AG5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="21" t="s">
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AR5" s="21" t="s">
+      <c r="AR5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AS5" s="21" t="s">
+      <c r="AS5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="21" t="s">
+      <c r="AT5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AU5" s="21" t="s">
+      <c r="AU5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AV5" s="24" t="s">
+      <c r="AV5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="26"/>
-      <c r="BB5" s="24" t="s">
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="26"/>
-      <c r="BD5" s="21" t="s">
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="BE5" s="24" t="s">
+      <c r="BE5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="23" t="s">
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BH5" s="24" t="s">
+      <c r="BH5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BI5" s="25"/>
-      <c r="BJ5" s="25"/>
-      <c r="BK5" s="26"/>
-      <c r="BL5" s="24" t="s">
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="24"/>
+      <c r="BL5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="24" t="s">
+      <c r="BM5" s="24"/>
+      <c r="BN5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BO5" s="26"/>
-      <c r="BP5" s="21" t="s">
+      <c r="BO5" s="24"/>
+      <c r="BP5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="BQ5" s="21" t="s">
+      <c r="BQ5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="BR5" s="24" t="s">
+      <c r="BR5" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="BS5" s="26"/>
+      <c r="BS5" s="24"/>
     </row>
     <row r="6" spans="2:71" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
@@ -2999,10 +3021,10 @@
       <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="6" t="s">
         <v>10</v>
       </c>
@@ -3018,9 +3040,9 @@
       <c r="N6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
       <c r="R6" s="5" t="s">
         <v>40</v>
       </c>
@@ -3096,11 +3118,11 @@
       <c r="AP6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
       <c r="AV6" s="5" t="s">
         <v>65</v>
       </c>
@@ -3125,14 +3147,14 @@
       <c r="BC6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BD6" s="22"/>
+      <c r="BD6" s="26"/>
       <c r="BE6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="BF6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BG6" s="22"/>
+      <c r="BG6" s="26"/>
       <c r="BH6" s="5" t="s">
         <v>75</v>
       </c>
@@ -3157,8 +3179,8 @@
       <c r="BO6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BP6" s="22"/>
-      <c r="BQ6" s="22"/>
+      <c r="BP6" s="26"/>
+      <c r="BQ6" s="26"/>
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
     </row>
@@ -8951,7 +8973,7 @@
         <v>419</v>
       </c>
       <c r="BM37" s="9" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="BN37" s="9" t="s">
         <v>132</v>
@@ -8960,17 +8982,15 @@
         <v>132</v>
       </c>
       <c r="BP37" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BQ37" s="9" t="s">
         <v>133</v>
       </c>
       <c r="BR37" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="BS37" s="9" t="s">
-        <v>291</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="BS37" s="9"/>
     </row>
     <row r="38" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
@@ -9143,7 +9163,7 @@
         <v>419</v>
       </c>
       <c r="BM38" s="9" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="BN38" s="9" t="s">
         <v>132</v>
@@ -9152,7 +9172,7 @@
         <v>132</v>
       </c>
       <c r="BP38" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BQ38" s="9" t="s">
         <v>133</v>
@@ -9161,7 +9181,7 @@
         <v>290</v>
       </c>
       <c r="BS38" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
@@ -9335,7 +9355,7 @@
         <v>419</v>
       </c>
       <c r="BM39" s="9" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="BN39" s="9" t="s">
         <v>132</v>
@@ -9344,7 +9364,7 @@
         <v>132</v>
       </c>
       <c r="BP39" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BQ39" s="9" t="s">
         <v>133</v>
@@ -9353,7 +9373,7 @@
         <v>290</v>
       </c>
       <c r="BS39" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
@@ -9527,7 +9547,7 @@
         <v>419</v>
       </c>
       <c r="BM40" s="9" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="BN40" s="9" t="s">
         <v>132</v>
@@ -9536,7 +9556,7 @@
         <v>132</v>
       </c>
       <c r="BP40" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BQ40" s="9" t="s">
         <v>133</v>
@@ -9545,10 +9565,10 @@
         <v>290</v>
       </c>
       <c r="BS40" s="9" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="41" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>83</v>
       </c>
@@ -9571,10 +9591,10 @@
         <v>88</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K41" s="9" t="s">
         <v>52</v>
@@ -9589,13 +9609,13 @@
         <v>52</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="R41" s="13" t="s">
         <v>92</v>
@@ -9643,7 +9663,7 @@
         <v>94</v>
       </c>
       <c r="AG41" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH41" s="9">
         <v>0</v>
@@ -9676,24 +9696,32 @@
         <v>92</v>
       </c>
       <c r="AR41" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AS41" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT41" s="9" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="AU41" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AV41" s="9"/>
-      <c r="AW41" s="9"/>
-      <c r="AX41" s="9"/>
+      <c r="AV41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX41" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AY41" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ41" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="AZ41" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="BA41" s="9"/>
       <c r="BB41" s="13"/>
       <c r="BC41" s="9"/>
@@ -9706,32 +9734,30 @@
         <v>52</v>
       </c>
       <c r="BJ41" s="9"/>
-      <c r="BK41" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="BK41" s="9"/>
       <c r="BL41" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="BM41" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="BN41" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO41" s="16" t="s">
-        <v>110</v>
+        <v>438</v>
+      </c>
+      <c r="BN41" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO41" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="BP41" s="9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="BQ41" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="BR41" s="9" t="s">
         <v>290</v>
       </c>
       <c r="BS41" s="9" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
@@ -9908,17 +9934,15 @@
         <v>110</v>
       </c>
       <c r="BP42" s="9" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BQ42" s="9" t="s">
         <v>142</v>
       </c>
       <c r="BR42" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="BS42" s="9" t="s">
-        <v>297</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="BS42" s="9"/>
     </row>
     <row r="43" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
@@ -10094,7 +10118,7 @@
         <v>110</v>
       </c>
       <c r="BP43" s="9" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="BQ43" s="9" t="s">
         <v>142</v>
@@ -10103,7 +10127,7 @@
         <v>290</v>
       </c>
       <c r="BS43" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
@@ -10280,7 +10304,7 @@
         <v>110</v>
       </c>
       <c r="BP44" s="9" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="BQ44" s="9" t="s">
         <v>142</v>
@@ -10289,10 +10313,10 @@
         <v>290</v>
       </c>
       <c r="BS44" s="9" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="45" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>83</v>
       </c>
@@ -10315,10 +10339,10 @@
         <v>88</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>52</v>
@@ -10333,13 +10357,13 @@
         <v>52</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="R45" s="13" t="s">
         <v>92</v>
@@ -10428,22 +10452,16 @@
       <c r="AT45" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AU45" s="14"/>
-      <c r="AV45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX45" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="AU45" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV45" s="9"/>
+      <c r="AW45" s="9"/>
+      <c r="AX45" s="9"/>
       <c r="AY45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ45" s="10" t="s">
-        <v>88</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AZ45" s="10"/>
       <c r="BA45" s="9"/>
       <c r="BB45" s="13"/>
       <c r="BC45" s="9"/>
@@ -10456,9 +10474,11 @@
         <v>52</v>
       </c>
       <c r="BJ45" s="9"/>
-      <c r="BK45" s="9"/>
+      <c r="BK45" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="BL45" s="9" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="BM45" s="9" t="s">
         <v>405</v>
@@ -10470,19 +10490,19 @@
         <v>110</v>
       </c>
       <c r="BP45" s="9" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="BQ45" s="9" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="BR45" s="9" t="s">
         <v>290</v>
       </c>
       <c r="BS45" s="9" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="46" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>83</v>
       </c>
@@ -10505,10 +10525,10 @@
         <v>88</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>52</v>
@@ -10523,13 +10543,13 @@
         <v>52</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="R46" s="13" t="s">
         <v>92</v>
@@ -10618,22 +10638,16 @@
       <c r="AT46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AU46" s="14"/>
-      <c r="AV46" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW46" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX46" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="AU46" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV46" s="9"/>
+      <c r="AW46" s="9"/>
+      <c r="AX46" s="9"/>
       <c r="AY46" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ46" s="10" t="s">
-        <v>88</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AZ46" s="10"/>
       <c r="BA46" s="9"/>
       <c r="BB46" s="13"/>
       <c r="BC46" s="9"/>
@@ -10646,9 +10660,11 @@
         <v>52</v>
       </c>
       <c r="BJ46" s="9"/>
-      <c r="BK46" s="9"/>
+      <c r="BK46" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="BL46" s="9" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="BM46" s="9" t="s">
         <v>405</v>
@@ -10660,16 +10676,16 @@
         <v>110</v>
       </c>
       <c r="BP46" s="9" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="BQ46" s="9" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="BR46" s="9" t="s">
         <v>290</v>
       </c>
       <c r="BS46" s="9" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
@@ -10838,7 +10854,7 @@
       <c r="BJ47" s="9"/>
       <c r="BK47" s="9"/>
       <c r="BL47" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BM47" s="9" t="s">
         <v>405</v>
@@ -10850,17 +10866,15 @@
         <v>110</v>
       </c>
       <c r="BP47" s="9" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="BQ47" s="9" t="s">
         <v>125</v>
       </c>
       <c r="BR47" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="BS47" s="9" t="s">
-        <v>298</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="BS47" s="9"/>
     </row>
     <row r="48" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
@@ -11028,7 +11042,7 @@
       <c r="BJ48" s="9"/>
       <c r="BK48" s="9"/>
       <c r="BL48" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BM48" s="9" t="s">
         <v>405</v>
@@ -11040,7 +11054,7 @@
         <v>110</v>
       </c>
       <c r="BP48" s="9" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="BQ48" s="9" t="s">
         <v>125</v>
@@ -11049,10 +11063,10 @@
         <v>290</v>
       </c>
       <c r="BS48" s="9" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="49" spans="2:71" ht="157.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
         <v>83</v>
       </c>
@@ -11066,7 +11080,7 @@
         <v>104</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>106</v>
@@ -11075,10 +11089,10 @@
         <v>88</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>52</v>
@@ -11093,13 +11107,13 @@
         <v>52</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R49" s="13" t="s">
         <v>92</v>
@@ -11147,7 +11161,7 @@
         <v>94</v>
       </c>
       <c r="AG49" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="9">
         <v>0</v>
@@ -11180,17 +11194,15 @@
         <v>92</v>
       </c>
       <c r="AR49" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS49" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT49" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU49" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AU49" s="14"/>
       <c r="AV49" s="9" t="s">
         <v>88</v>
       </c>
@@ -11220,31 +11232,31 @@
       <c r="BJ49" s="9"/>
       <c r="BK49" s="9"/>
       <c r="BL49" s="9" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="BM49" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="BN49" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO49" s="9" t="s">
-        <v>132</v>
+        <v>405</v>
+      </c>
+      <c r="BN49" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO49" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP49" s="9" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="BQ49" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="BR49" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BS49" s="9" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="50" spans="2:71" ht="157.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>83</v>
       </c>
@@ -11258,7 +11270,7 @@
         <v>104</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>106</v>
@@ -11267,10 +11279,10 @@
         <v>88</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>52</v>
@@ -11285,13 +11297,13 @@
         <v>52</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R50" s="13" t="s">
         <v>92</v>
@@ -11339,7 +11351,7 @@
         <v>94</v>
       </c>
       <c r="AG50" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="9">
         <v>0</v>
@@ -11372,17 +11384,15 @@
         <v>92</v>
       </c>
       <c r="AR50" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS50" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT50" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU50" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AU50" s="14"/>
       <c r="AV50" s="9" t="s">
         <v>88</v>
       </c>
@@ -11412,31 +11422,31 @@
       <c r="BJ50" s="9"/>
       <c r="BK50" s="9"/>
       <c r="BL50" s="9" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="BM50" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BN50" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO50" s="9" t="s">
-        <v>132</v>
+        <v>405</v>
+      </c>
+      <c r="BN50" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO50" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP50" s="9" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="BQ50" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="BR50" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BS50" s="9" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="51" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>83</v>
       </c>
@@ -11450,7 +11460,7 @@
         <v>104</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>106</v>
@@ -11459,10 +11469,10 @@
         <v>88</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K51" s="9" t="s">
         <v>52</v>
@@ -11477,13 +11487,13 @@
         <v>52</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R51" s="13" t="s">
         <v>92</v>
@@ -11531,7 +11541,7 @@
         <v>94</v>
       </c>
       <c r="AG51" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="9">
         <v>0</v>
@@ -11564,17 +11574,15 @@
         <v>92</v>
       </c>
       <c r="AR51" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS51" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT51" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU51" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AU51" s="14"/>
       <c r="AV51" s="9" t="s">
         <v>88</v>
       </c>
@@ -11604,31 +11612,31 @@
       <c r="BJ51" s="9"/>
       <c r="BK51" s="9"/>
       <c r="BL51" s="9" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="BM51" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BN51" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO51" s="9" t="s">
-        <v>132</v>
+        <v>405</v>
+      </c>
+      <c r="BN51" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO51" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP51" s="9" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="BQ51" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="BR51" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BS51" s="9" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="52" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:71" ht="157.5" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>83</v>
       </c>
@@ -11799,7 +11807,7 @@
         <v>425</v>
       </c>
       <c r="BM52" s="9" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="BN52" s="9" t="s">
         <v>132</v>
@@ -11808,7 +11816,7 @@
         <v>132</v>
       </c>
       <c r="BP52" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BQ52" s="9" t="s">
         <v>133</v>
@@ -11817,10 +11825,10 @@
         <v>289</v>
       </c>
       <c r="BS52" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="53" spans="2:71" ht="236.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:71" ht="157.5" x14ac:dyDescent="0.3">
       <c r="B53" s="9" t="s">
         <v>83</v>
       </c>
@@ -11843,10 +11851,10 @@
         <v>88</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K53" s="9" t="s">
         <v>52</v>
@@ -11861,13 +11869,13 @@
         <v>52</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="Q53" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="R53" s="13" t="s">
         <v>92</v>
@@ -11915,7 +11923,7 @@
         <v>94</v>
       </c>
       <c r="AG53" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH53" s="9">
         <v>0</v>
@@ -11948,24 +11956,32 @@
         <v>92</v>
       </c>
       <c r="AR53" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AS53" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT53" s="9" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="AU53" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AV53" s="9"/>
-      <c r="AW53" s="9"/>
-      <c r="AX53" s="9"/>
+      <c r="AV53" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW53" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX53" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AY53" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ53" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="AZ53" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="BA53" s="9"/>
       <c r="BB53" s="13"/>
       <c r="BC53" s="9"/>
@@ -11978,35 +11994,33 @@
         <v>52</v>
       </c>
       <c r="BJ53" s="9"/>
-      <c r="BK53" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="BK53" s="9"/>
       <c r="BL53" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="BM53" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="BN53" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO53" s="16" t="s">
-        <v>110</v>
+        <v>131</v>
+      </c>
+      <c r="BN53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO53" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="BP53" s="9" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="BQ53" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="BR53" s="9" t="s">
         <v>289</v>
       </c>
       <c r="BS53" s="9" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="54" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>83</v>
       </c>
@@ -12029,10 +12043,10 @@
         <v>88</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>52</v>
@@ -12047,13 +12061,13 @@
         <v>52</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="Q54" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="R54" s="13" t="s">
         <v>92</v>
@@ -12101,7 +12115,7 @@
         <v>94</v>
       </c>
       <c r="AG54" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH54" s="9">
         <v>0</v>
@@ -12134,24 +12148,32 @@
         <v>92</v>
       </c>
       <c r="AR54" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AS54" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT54" s="9" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="AU54" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AV54" s="9"/>
-      <c r="AW54" s="9"/>
-      <c r="AX54" s="9"/>
+      <c r="AV54" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW54" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX54" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AY54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ54" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="AZ54" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="BA54" s="9"/>
       <c r="BB54" s="13"/>
       <c r="BC54" s="9"/>
@@ -12164,35 +12186,33 @@
         <v>52</v>
       </c>
       <c r="BJ54" s="9"/>
-      <c r="BK54" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="BK54" s="9"/>
       <c r="BL54" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="BM54" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="BN54" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO54" s="16" t="s">
-        <v>110</v>
+        <v>131</v>
+      </c>
+      <c r="BN54" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO54" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="BP54" s="9" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="BQ54" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="BR54" s="9" t="s">
         <v>289</v>
       </c>
       <c r="BS54" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="55" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
         <v>83</v>
       </c>
@@ -12215,10 +12235,10 @@
         <v>88</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>52</v>
@@ -12233,13 +12253,13 @@
         <v>52</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P55" s="11" t="s">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="Q55" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="R55" s="13" t="s">
         <v>92</v>
@@ -12287,7 +12307,7 @@
         <v>94</v>
       </c>
       <c r="AG55" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH55" s="9">
         <v>0</v>
@@ -12320,24 +12340,32 @@
         <v>92</v>
       </c>
       <c r="AR55" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AS55" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT55" s="9" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="AU55" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AV55" s="9"/>
-      <c r="AW55" s="9"/>
-      <c r="AX55" s="9"/>
+      <c r="AV55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX55" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AY55" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ55" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="AZ55" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="BA55" s="9"/>
       <c r="BB55" s="13"/>
       <c r="BC55" s="9"/>
@@ -12350,35 +12378,33 @@
         <v>52</v>
       </c>
       <c r="BJ55" s="9"/>
-      <c r="BK55" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="BK55" s="9"/>
       <c r="BL55" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BM55" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="BN55" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO55" s="16" t="s">
-        <v>110</v>
+        <v>131</v>
+      </c>
+      <c r="BN55" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO55" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="BP55" s="9" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="BQ55" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="BR55" s="9" t="s">
         <v>289</v>
       </c>
       <c r="BS55" s="9" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="56" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:71" ht="236.25" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
         <v>83</v>
       </c>
@@ -12540,7 +12566,7 @@
         <v>52</v>
       </c>
       <c r="BL56" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BM56" s="9" t="s">
         <v>405</v>
@@ -12552,7 +12578,7 @@
         <v>110</v>
       </c>
       <c r="BP56" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="BQ56" s="9" t="s">
         <v>140</v>
@@ -12561,10 +12587,10 @@
         <v>289</v>
       </c>
       <c r="BS56" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="57" spans="2:71" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>83</v>
       </c>
@@ -12587,10 +12613,10 @@
         <v>88</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>52</v>
@@ -12605,13 +12631,13 @@
         <v>52</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P57" s="11" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R57" s="13" t="s">
         <v>92</v>
@@ -12700,22 +12726,16 @@
       <c r="AT57" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AU57" s="14"/>
-      <c r="AV57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX57" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="AU57" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV57" s="9"/>
+      <c r="AW57" s="9"/>
+      <c r="AX57" s="9"/>
       <c r="AY57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ57" s="10" t="s">
-        <v>88</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AZ57" s="10"/>
       <c r="BA57" s="9"/>
       <c r="BB57" s="13"/>
       <c r="BC57" s="9"/>
@@ -12728,9 +12748,11 @@
         <v>52</v>
       </c>
       <c r="BJ57" s="9"/>
-      <c r="BK57" s="9"/>
+      <c r="BK57" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="BL57" s="9" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="BM57" s="9" t="s">
         <v>405</v>
@@ -12742,19 +12764,19 @@
         <v>110</v>
       </c>
       <c r="BP57" s="9" t="s">
-        <v>130</v>
+        <v>433</v>
       </c>
       <c r="BQ57" s="9" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="BR57" s="9" t="s">
         <v>289</v>
       </c>
       <c r="BS57" s="9" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="58" spans="2:71" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>83</v>
       </c>
@@ -12777,10 +12799,10 @@
         <v>88</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>52</v>
@@ -12795,13 +12817,13 @@
         <v>52</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P58" s="11" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R58" s="13" t="s">
         <v>92</v>
@@ -12890,22 +12912,16 @@
       <c r="AT58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AU58" s="14"/>
-      <c r="AV58" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW58" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX58" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="AU58" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV58" s="9"/>
+      <c r="AW58" s="9"/>
+      <c r="AX58" s="9"/>
       <c r="AY58" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ58" s="10" t="s">
-        <v>88</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AZ58" s="10"/>
       <c r="BA58" s="9"/>
       <c r="BB58" s="13"/>
       <c r="BC58" s="9"/>
@@ -12918,9 +12934,11 @@
         <v>52</v>
       </c>
       <c r="BJ58" s="9"/>
-      <c r="BK58" s="9"/>
+      <c r="BK58" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="BL58" s="9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="BM58" s="9" t="s">
         <v>405</v>
@@ -12932,19 +12950,19 @@
         <v>110</v>
       </c>
       <c r="BP58" s="9" t="s">
-        <v>130</v>
+        <v>433</v>
       </c>
       <c r="BQ58" s="9" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="BR58" s="9" t="s">
         <v>289</v>
       </c>
       <c r="BS58" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="59" spans="2:71" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>83</v>
       </c>
@@ -12967,10 +12985,10 @@
         <v>88</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K59" s="9" t="s">
         <v>52</v>
@@ -12985,13 +13003,13 @@
         <v>52</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="Q59" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R59" s="13" t="s">
         <v>92</v>
@@ -13080,22 +13098,16 @@
       <c r="AT59" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AU59" s="14"/>
-      <c r="AV59" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW59" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX59" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="AU59" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV59" s="9"/>
+      <c r="AW59" s="9"/>
+      <c r="AX59" s="9"/>
       <c r="AY59" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ59" s="10" t="s">
-        <v>88</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AZ59" s="10"/>
       <c r="BA59" s="9"/>
       <c r="BB59" s="13"/>
       <c r="BC59" s="9"/>
@@ -13108,9 +13120,11 @@
         <v>52</v>
       </c>
       <c r="BJ59" s="9"/>
-      <c r="BK59" s="9"/>
+      <c r="BK59" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="BL59" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="BM59" s="9" t="s">
         <v>405</v>
@@ -13122,16 +13136,16 @@
         <v>110</v>
       </c>
       <c r="BP59" s="9" t="s">
-        <v>130</v>
+        <v>433</v>
       </c>
       <c r="BQ59" s="9" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="BR59" s="9" t="s">
         <v>289</v>
       </c>
       <c r="BS59" s="9" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="2:71" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13300,7 +13314,7 @@
       <c r="BJ60" s="9"/>
       <c r="BK60" s="9"/>
       <c r="BL60" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="BM60" s="9" t="s">
         <v>405</v>
@@ -13321,10 +13335,10 @@
         <v>289</v>
       </c>
       <c r="BS60" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="61" spans="2:71" ht="90" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:71" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>83</v>
       </c>
@@ -13332,13 +13346,13 @@
         <v>84</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>106</v>
@@ -13347,10 +13361,10 @@
         <v>88</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="K61" s="9" t="s">
         <v>52</v>
@@ -13365,13 +13379,13 @@
         <v>52</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P61" s="11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="R61" s="13" t="s">
         <v>92</v>
@@ -13419,7 +13433,7 @@
         <v>94</v>
       </c>
       <c r="AG61" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH61" s="9">
         <v>0</v>
@@ -13452,17 +13466,15 @@
         <v>92</v>
       </c>
       <c r="AR61" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS61" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT61" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU61" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AU61" s="14"/>
       <c r="AV61" s="9" t="s">
         <v>88</v>
       </c>
@@ -13478,9 +13490,7 @@
       <c r="AZ61" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA61" s="9" t="s">
-        <v>251</v>
-      </c>
+      <c r="BA61" s="9"/>
       <c r="BB61" s="13"/>
       <c r="BC61" s="9"/>
       <c r="BD61" s="9"/>
@@ -13494,29 +13504,31 @@
       <c r="BJ61" s="9"/>
       <c r="BK61" s="9"/>
       <c r="BL61" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="BM61" s="9"/>
-      <c r="BN61" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO61" s="9" t="s">
-        <v>132</v>
+        <v>435</v>
+      </c>
+      <c r="BM61" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="BN61" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO61" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP61" s="9" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="BQ61" s="9" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="BR61" s="9" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="BS61" s="9" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="62" spans="2:71" ht="90" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:71" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>83</v>
       </c>
@@ -13524,13 +13536,13 @@
         <v>84</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>106</v>
@@ -13539,10 +13551,10 @@
         <v>88</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>52</v>
@@ -13557,13 +13569,13 @@
         <v>52</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q62" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="R62" s="13" t="s">
         <v>92</v>
@@ -13611,7 +13623,7 @@
         <v>94</v>
       </c>
       <c r="AG62" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH62" s="9">
         <v>0</v>
@@ -13644,17 +13656,15 @@
         <v>92</v>
       </c>
       <c r="AR62" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS62" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT62" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU62" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AU62" s="14"/>
       <c r="AV62" s="9" t="s">
         <v>88</v>
       </c>
@@ -13670,9 +13680,7 @@
       <c r="AZ62" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA62" s="9" t="s">
-        <v>390</v>
-      </c>
+      <c r="BA62" s="9"/>
       <c r="BB62" s="13"/>
       <c r="BC62" s="9"/>
       <c r="BD62" s="9"/>
@@ -13686,29 +13694,31 @@
       <c r="BJ62" s="9"/>
       <c r="BK62" s="9"/>
       <c r="BL62" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="BM62" s="9"/>
-      <c r="BN62" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO62" s="9" t="s">
-        <v>132</v>
+        <v>436</v>
+      </c>
+      <c r="BM62" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="BN62" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO62" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP62" s="9" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="BQ62" s="9" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="BR62" s="9" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="BS62" s="9" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="63" spans="2:71" ht="90" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:71" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>83</v>
       </c>
@@ -13716,13 +13726,13 @@
         <v>84</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>106</v>
@@ -13731,10 +13741,10 @@
         <v>88</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="K63" s="9" t="s">
         <v>52</v>
@@ -13749,13 +13759,13 @@
         <v>52</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q63" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="R63" s="13" t="s">
         <v>92</v>
@@ -13803,7 +13813,7 @@
         <v>94</v>
       </c>
       <c r="AG63" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="9">
         <v>0</v>
@@ -13836,17 +13846,15 @@
         <v>92</v>
       </c>
       <c r="AR63" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS63" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT63" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU63" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AU63" s="14"/>
       <c r="AV63" s="9" t="s">
         <v>88</v>
       </c>
@@ -13862,9 +13870,7 @@
       <c r="AZ63" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA63" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="BA63" s="9"/>
       <c r="BB63" s="13"/>
       <c r="BC63" s="9"/>
       <c r="BD63" s="9"/>
@@ -13878,26 +13884,28 @@
       <c r="BJ63" s="9"/>
       <c r="BK63" s="9"/>
       <c r="BL63" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="BM63" s="9"/>
-      <c r="BN63" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO63" s="9" t="s">
-        <v>132</v>
+        <v>429</v>
+      </c>
+      <c r="BM63" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="BN63" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO63" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP63" s="9" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="BQ63" s="9" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="BR63" s="9" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="BS63" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -14055,7 +14063,7 @@
         <v>88</v>
       </c>
       <c r="BA64" s="9" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="BB64" s="13"/>
       <c r="BC64" s="9"/>
@@ -14089,7 +14097,7 @@
         <v>242</v>
       </c>
       <c r="BS64" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -14246,7 +14254,9 @@
       <c r="AZ65" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA65" s="9"/>
+      <c r="BA65" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="BB65" s="13"/>
       <c r="BC65" s="9"/>
       <c r="BD65" s="9"/>
@@ -14279,7 +14289,7 @@
         <v>242</v>
       </c>
       <c r="BS65" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -14305,7 +14315,7 @@
         <v>88</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>155</v>
@@ -14323,13 +14333,13 @@
         <v>52</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="Q66" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R66" s="13" t="s">
         <v>92</v>
@@ -14418,7 +14428,9 @@
       <c r="AT66" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AU66" s="14"/>
+      <c r="AU66" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="AV66" s="9" t="s">
         <v>88</v>
       </c>
@@ -14435,7 +14447,7 @@
         <v>88</v>
       </c>
       <c r="BA66" s="9" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="BB66" s="13"/>
       <c r="BC66" s="9"/>
@@ -14460,16 +14472,16 @@
         <v>132</v>
       </c>
       <c r="BP66" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BQ66" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BR66" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS66" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -14495,7 +14507,7 @@
         <v>88</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>155</v>
@@ -14513,13 +14525,13 @@
         <v>52</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="Q67" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R67" s="13" t="s">
         <v>92</v>
@@ -14608,7 +14620,9 @@
       <c r="AT67" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AU67" s="14"/>
+      <c r="AU67" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="AV67" s="9" t="s">
         <v>88</v>
       </c>
@@ -14625,7 +14639,7 @@
         <v>88</v>
       </c>
       <c r="BA67" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="BB67" s="13"/>
       <c r="BC67" s="9"/>
@@ -14650,16 +14664,16 @@
         <v>132</v>
       </c>
       <c r="BP67" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BQ67" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BR67" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS67" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -14685,7 +14699,7 @@
         <v>88</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>155</v>
@@ -14703,13 +14717,13 @@
         <v>52</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R68" s="13" t="s">
         <v>92</v>
@@ -14798,7 +14812,9 @@
       <c r="AT68" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AU68" s="14"/>
+      <c r="AU68" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="AV68" s="9" t="s">
         <v>88</v>
       </c>
@@ -14814,9 +14830,7 @@
       <c r="AZ68" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA68" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="BA68" s="9"/>
       <c r="BB68" s="13"/>
       <c r="BC68" s="9"/>
       <c r="BD68" s="9"/>
@@ -14840,16 +14854,16 @@
         <v>132</v>
       </c>
       <c r="BP68" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BQ68" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BR68" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS68" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -15005,7 +15019,7 @@
         <v>88</v>
       </c>
       <c r="BA69" s="9" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="BB69" s="13"/>
       <c r="BC69" s="9"/>
@@ -15039,7 +15053,7 @@
         <v>242</v>
       </c>
       <c r="BS69" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -15194,7 +15208,9 @@
       <c r="AZ70" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA70" s="9"/>
+      <c r="BA70" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="BB70" s="13"/>
       <c r="BC70" s="9"/>
       <c r="BD70" s="9"/>
@@ -15227,7 +15243,7 @@
         <v>242</v>
       </c>
       <c r="BS70" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -15253,7 +15269,7 @@
         <v>88</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>155</v>
@@ -15271,13 +15287,13 @@
         <v>52</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="R71" s="13" t="s">
         <v>92</v>
@@ -15358,17 +15374,15 @@
         <v>92</v>
       </c>
       <c r="AR71" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AS71" s="9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AT71" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AU71" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="AU71" s="14"/>
       <c r="AV71" s="9" t="s">
         <v>88</v>
       </c>
@@ -15385,7 +15399,7 @@
         <v>88</v>
       </c>
       <c r="BA71" s="9" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="BB71" s="13"/>
       <c r="BC71" s="9"/>
@@ -15400,26 +15414,26 @@
       <c r="BJ71" s="9"/>
       <c r="BK71" s="9"/>
       <c r="BL71" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BM71" s="9"/>
-      <c r="BN71" s="9">
-        <v>4</v>
-      </c>
-      <c r="BO71" s="9">
-        <v>2</v>
+      <c r="BN71" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO71" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="BP71" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BQ71" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BR71" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS71" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -15445,7 +15459,7 @@
         <v>88</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>155</v>
@@ -15463,13 +15477,13 @@
         <v>52</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="R72" s="13" t="s">
         <v>92</v>
@@ -15550,17 +15564,15 @@
         <v>92</v>
       </c>
       <c r="AR72" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AS72" s="9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AT72" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AU72" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="AU72" s="14"/>
       <c r="AV72" s="9" t="s">
         <v>88</v>
       </c>
@@ -15577,7 +15589,7 @@
         <v>88</v>
       </c>
       <c r="BA72" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="BB72" s="13"/>
       <c r="BC72" s="9"/>
@@ -15592,26 +15604,26 @@
       <c r="BJ72" s="9"/>
       <c r="BK72" s="9"/>
       <c r="BL72" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BM72" s="9"/>
-      <c r="BN72" s="9">
-        <v>4</v>
-      </c>
-      <c r="BO72" s="9">
-        <v>2</v>
+      <c r="BN72" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO72" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="BP72" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BQ72" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BR72" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS72" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -15637,7 +15649,7 @@
         <v>88</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>155</v>
@@ -15655,13 +15667,13 @@
         <v>52</v>
       </c>
       <c r="O73" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="Q73" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="R73" s="13" t="s">
         <v>92</v>
@@ -15742,17 +15754,15 @@
         <v>92</v>
       </c>
       <c r="AR73" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AS73" s="9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AT73" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AU73" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="AU73" s="14"/>
       <c r="AV73" s="9" t="s">
         <v>88</v>
       </c>
@@ -15768,9 +15778,7 @@
       <c r="AZ73" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA73" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="BA73" s="9"/>
       <c r="BB73" s="13"/>
       <c r="BC73" s="9"/>
       <c r="BD73" s="9"/>
@@ -15784,26 +15792,26 @@
       <c r="BJ73" s="9"/>
       <c r="BK73" s="9"/>
       <c r="BL73" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BM73" s="9"/>
-      <c r="BN73" s="9">
-        <v>4</v>
-      </c>
-      <c r="BO73" s="9">
-        <v>2</v>
+      <c r="BN73" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO73" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="BP73" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BQ73" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BR73" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS73" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -15961,7 +15969,7 @@
         <v>88</v>
       </c>
       <c r="BA74" s="9" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="BB74" s="13"/>
       <c r="BC74" s="9"/>
@@ -15995,7 +16003,7 @@
         <v>242</v>
       </c>
       <c r="BS74" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -16152,7 +16160,9 @@
       <c r="AZ75" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA75" s="9"/>
+      <c r="BA75" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="BB75" s="13"/>
       <c r="BC75" s="9"/>
       <c r="BD75" s="9"/>
@@ -16185,7 +16195,7 @@
         <v>242</v>
       </c>
       <c r="BS75" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -16211,7 +16221,7 @@
         <v>88</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>155</v>
@@ -16229,13 +16239,13 @@
         <v>52</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P76" s="11" t="s">
-        <v>162</v>
+        <v>329</v>
       </c>
       <c r="Q76" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="R76" s="13" t="s">
         <v>92</v>
@@ -16316,15 +16326,17 @@
         <v>92</v>
       </c>
       <c r="AR76" s="9" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AS76" s="9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="AT76" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU76" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="AU76" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="AV76" s="9" t="s">
         <v>88</v>
       </c>
@@ -16341,7 +16353,7 @@
         <v>88</v>
       </c>
       <c r="BA76" s="9" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="BB76" s="13"/>
       <c r="BC76" s="9"/>
@@ -16356,28 +16368,26 @@
       <c r="BJ76" s="9"/>
       <c r="BK76" s="9"/>
       <c r="BL76" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM76" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN76" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO76" s="16" t="s">
-        <v>110</v>
+        <v>160</v>
+      </c>
+      <c r="BM76" s="9"/>
+      <c r="BN76" s="9">
+        <v>4</v>
+      </c>
+      <c r="BO76" s="9">
+        <v>2</v>
       </c>
       <c r="BP76" s="9" t="s">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="BQ76" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BR76" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS76" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -16403,7 +16413,7 @@
         <v>88</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>155</v>
@@ -16421,13 +16431,13 @@
         <v>52</v>
       </c>
       <c r="O77" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P77" s="11" t="s">
-        <v>162</v>
+        <v>329</v>
       </c>
       <c r="Q77" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="R77" s="13" t="s">
         <v>92</v>
@@ -16508,15 +16518,17 @@
         <v>92</v>
       </c>
       <c r="AR77" s="9" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AS77" s="9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="AT77" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU77" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="AU77" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="AV77" s="9" t="s">
         <v>88</v>
       </c>
@@ -16533,7 +16545,7 @@
         <v>88</v>
       </c>
       <c r="BA77" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="BB77" s="13"/>
       <c r="BC77" s="9"/>
@@ -16548,28 +16560,26 @@
       <c r="BJ77" s="9"/>
       <c r="BK77" s="9"/>
       <c r="BL77" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM77" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN77" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO77" s="16" t="s">
-        <v>110</v>
+        <v>160</v>
+      </c>
+      <c r="BM77" s="9"/>
+      <c r="BN77" s="9">
+        <v>4</v>
+      </c>
+      <c r="BO77" s="9">
+        <v>2</v>
       </c>
       <c r="BP77" s="9" t="s">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="BQ77" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BR77" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS77" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -16595,7 +16605,7 @@
         <v>88</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>155</v>
@@ -16613,13 +16623,13 @@
         <v>52</v>
       </c>
       <c r="O78" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P78" s="11" t="s">
-        <v>162</v>
+        <v>329</v>
       </c>
       <c r="Q78" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="R78" s="13" t="s">
         <v>92</v>
@@ -16700,15 +16710,17 @@
         <v>92</v>
       </c>
       <c r="AR78" s="9" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AS78" s="9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="AT78" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU78" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="AU78" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="AV78" s="9" t="s">
         <v>88</v>
       </c>
@@ -16724,9 +16736,7 @@
       <c r="AZ78" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA78" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="BA78" s="9"/>
       <c r="BB78" s="13"/>
       <c r="BC78" s="9"/>
       <c r="BD78" s="9"/>
@@ -16740,28 +16750,26 @@
       <c r="BJ78" s="9"/>
       <c r="BK78" s="9"/>
       <c r="BL78" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM78" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN78" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO78" s="16" t="s">
-        <v>110</v>
+        <v>160</v>
+      </c>
+      <c r="BM78" s="9"/>
+      <c r="BN78" s="9">
+        <v>4</v>
+      </c>
+      <c r="BO78" s="9">
+        <v>2</v>
       </c>
       <c r="BP78" s="9" t="s">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="BQ78" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BR78" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS78" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -16917,7 +16925,7 @@
         <v>88</v>
       </c>
       <c r="BA79" s="9" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="BB79" s="13"/>
       <c r="BC79" s="9"/>
@@ -16953,7 +16961,7 @@
         <v>242</v>
       </c>
       <c r="BS79" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -17108,7 +17116,9 @@
       <c r="AZ80" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA80" s="9"/>
+      <c r="BA80" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="BB80" s="13"/>
       <c r="BC80" s="9"/>
       <c r="BD80" s="9"/>
@@ -17143,7 +17153,7 @@
         <v>242</v>
       </c>
       <c r="BS80" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -17169,7 +17179,7 @@
         <v>88</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>155</v>
@@ -17187,13 +17197,13 @@
         <v>52</v>
       </c>
       <c r="O81" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P81" s="11" t="s">
-        <v>339</v>
+        <v>162</v>
       </c>
       <c r="Q81" s="12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="R81" s="13" t="s">
         <v>92</v>
@@ -17299,7 +17309,7 @@
         <v>88</v>
       </c>
       <c r="BA81" s="9" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="BB81" s="13"/>
       <c r="BC81" s="9"/>
@@ -17335,7 +17345,7 @@
         <v>242</v>
       </c>
       <c r="BS81" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -17361,7 +17371,7 @@
         <v>88</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>155</v>
@@ -17379,13 +17389,13 @@
         <v>52</v>
       </c>
       <c r="O82" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P82" s="11" t="s">
-        <v>339</v>
+        <v>162</v>
       </c>
       <c r="Q82" s="12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="R82" s="13" t="s">
         <v>92</v>
@@ -17491,7 +17501,7 @@
         <v>88</v>
       </c>
       <c r="BA82" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="BB82" s="13"/>
       <c r="BC82" s="9"/>
@@ -17527,7 +17537,7 @@
         <v>242</v>
       </c>
       <c r="BS82" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -17553,7 +17563,7 @@
         <v>88</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>155</v>
@@ -17571,13 +17581,13 @@
         <v>52</v>
       </c>
       <c r="O83" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P83" s="11" t="s">
-        <v>339</v>
+        <v>162</v>
       </c>
       <c r="Q83" s="12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="R83" s="13" t="s">
         <v>92</v>
@@ -17682,9 +17692,7 @@
       <c r="AZ83" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA83" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="BA83" s="9"/>
       <c r="BB83" s="13"/>
       <c r="BC83" s="9"/>
       <c r="BD83" s="9"/>
@@ -17719,7 +17727,7 @@
         <v>242</v>
       </c>
       <c r="BS83" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -17875,7 +17883,7 @@
         <v>88</v>
       </c>
       <c r="BA84" s="9" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="BB84" s="13"/>
       <c r="BC84" s="9"/>
@@ -17911,7 +17919,7 @@
         <v>242</v>
       </c>
       <c r="BS84" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="2:71" ht="90" x14ac:dyDescent="0.3">
@@ -18066,7 +18074,9 @@
       <c r="AZ85" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA85" s="9"/>
+      <c r="BA85" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="BB85" s="13"/>
       <c r="BC85" s="9"/>
       <c r="BD85" s="9"/>
@@ -18101,10 +18111,10 @@
         <v>242</v>
       </c>
       <c r="BS85" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="86" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:71" ht="90" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
         <v>83</v>
       </c>
@@ -18118,7 +18128,7 @@
         <v>154</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>106</v>
@@ -18127,10 +18137,10 @@
         <v>88</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K86" s="9" t="s">
         <v>52</v>
@@ -18145,33 +18155,33 @@
         <v>52</v>
       </c>
       <c r="O86" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P86" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q86" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="R86" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="S86" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="R86" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S86" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="T86" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="U86" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="V86" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="W86" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="X86" s="17" t="s">
+      <c r="T86" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U86" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="V86" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W86" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X86" s="9" t="s">
         <v>93</v>
       </c>
       <c r="Y86" s="9" t="s">
@@ -18232,17 +18242,15 @@
         <v>92</v>
       </c>
       <c r="AR86" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS86" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT86" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU86" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AU86" s="14"/>
       <c r="AV86" s="9" t="s">
         <v>88</v>
       </c>
@@ -18258,7 +18266,9 @@
       <c r="AZ86" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA86" s="9"/>
+      <c r="BA86" s="9" t="s">
+        <v>391</v>
+      </c>
       <c r="BB86" s="13"/>
       <c r="BC86" s="9"/>
       <c r="BD86" s="9"/>
@@ -18272,31 +18282,31 @@
       <c r="BJ86" s="9"/>
       <c r="BK86" s="9"/>
       <c r="BL86" s="9" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="BM86" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BN86" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO86" s="9" t="s">
-        <v>132</v>
+        <v>88</v>
+      </c>
+      <c r="BN86" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO86" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP86" s="9" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="BQ86" s="9" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="BR86" s="9" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="BS86" s="9" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="87" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:71" ht="90" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>83</v>
       </c>
@@ -18310,7 +18320,7 @@
         <v>154</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>106</v>
@@ -18319,10 +18329,10 @@
         <v>88</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K87" s="9" t="s">
         <v>52</v>
@@ -18337,33 +18347,33 @@
         <v>52</v>
       </c>
       <c r="O87" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P87" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q87" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="R87" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="S87" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="R87" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S87" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="T87" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="U87" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="V87" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="W87" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="X87" s="17" t="s">
+      <c r="T87" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U87" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="V87" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W87" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X87" s="9" t="s">
         <v>93</v>
       </c>
       <c r="Y87" s="9" t="s">
@@ -18424,17 +18434,15 @@
         <v>92</v>
       </c>
       <c r="AR87" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS87" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT87" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU87" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AU87" s="14"/>
       <c r="AV87" s="9" t="s">
         <v>88</v>
       </c>
@@ -18450,7 +18458,9 @@
       <c r="AZ87" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA87" s="9"/>
+      <c r="BA87" s="9" t="s">
+        <v>392</v>
+      </c>
       <c r="BB87" s="13"/>
       <c r="BC87" s="9"/>
       <c r="BD87" s="9"/>
@@ -18464,31 +18474,31 @@
       <c r="BJ87" s="9"/>
       <c r="BK87" s="9"/>
       <c r="BL87" s="9" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="BM87" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BN87" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO87" s="9" t="s">
-        <v>132</v>
+        <v>88</v>
+      </c>
+      <c r="BN87" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO87" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP87" s="9" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="BQ87" s="9" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="BR87" s="9" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="BS87" s="9" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="88" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:71" ht="90" x14ac:dyDescent="0.3">
       <c r="B88" s="9" t="s">
         <v>83</v>
       </c>
@@ -18502,7 +18512,7 @@
         <v>154</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>106</v>
@@ -18511,10 +18521,10 @@
         <v>88</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>52</v>
@@ -18529,33 +18539,33 @@
         <v>52</v>
       </c>
       <c r="O88" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P88" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="R88" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="S88" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="R88" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S88" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="T88" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="U88" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="V88" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="W88" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="X88" s="17" t="s">
+      <c r="T88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="V88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X88" s="9" t="s">
         <v>93</v>
       </c>
       <c r="Y88" s="9" t="s">
@@ -18616,17 +18626,15 @@
         <v>92</v>
       </c>
       <c r="AR88" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS88" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT88" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU88" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AU88" s="14"/>
       <c r="AV88" s="9" t="s">
         <v>88</v>
       </c>
@@ -18656,28 +18664,28 @@
       <c r="BJ88" s="9"/>
       <c r="BK88" s="9"/>
       <c r="BL88" s="9" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="BM88" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BN88" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO88" s="9" t="s">
-        <v>132</v>
+        <v>88</v>
+      </c>
+      <c r="BN88" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO88" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP88" s="9" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="BQ88" s="9" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="BR88" s="9" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="BS88" s="9" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
@@ -18869,7 +18877,7 @@
         <v>290</v>
       </c>
       <c r="BS89" s="9" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
@@ -18895,7 +18903,7 @@
         <v>88</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>147</v>
@@ -18913,13 +18921,13 @@
         <v>52</v>
       </c>
       <c r="O90" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P90" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q90" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="R90" s="17" t="s">
         <v>92</v>
@@ -19058,10 +19066,10 @@
         <v>152</v>
       </c>
       <c r="BR90" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BS90" s="9" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
@@ -19087,7 +19095,7 @@
         <v>88</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>147</v>
@@ -19105,13 +19113,13 @@
         <v>52</v>
       </c>
       <c r="O91" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P91" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q91" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="R91" s="17" t="s">
         <v>92</v>
@@ -19250,10 +19258,10 @@
         <v>152</v>
       </c>
       <c r="BR91" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BS91" s="9" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
@@ -19279,7 +19287,7 @@
         <v>88</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>147</v>
@@ -19297,13 +19305,13 @@
         <v>52</v>
       </c>
       <c r="O92" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P92" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q92" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="R92" s="17" t="s">
         <v>92</v>
@@ -19442,10 +19450,10 @@
         <v>152</v>
       </c>
       <c r="BR92" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BS92" s="9" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
@@ -19637,7 +19645,7 @@
         <v>289</v>
       </c>
       <c r="BS93" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
@@ -19648,13 +19656,13 @@
         <v>84</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>106</v>
@@ -19663,10 +19671,10 @@
         <v>88</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>52</v>
@@ -19681,33 +19689,33 @@
         <v>52</v>
       </c>
       <c r="O94" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P94" s="11" t="s">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="Q94" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="R94" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="S94" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="R94" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S94" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="T94" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U94" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="V94" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="W94" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X94" s="9" t="s">
+      <c r="T94" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U94" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="V94" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="W94" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="X94" s="17" t="s">
         <v>93</v>
       </c>
       <c r="Y94" s="9" t="s">
@@ -19794,9 +19802,7 @@
       <c r="AZ94" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA94" s="9" t="s">
-        <v>251</v>
-      </c>
+      <c r="BA94" s="9"/>
       <c r="BB94" s="13"/>
       <c r="BC94" s="9"/>
       <c r="BD94" s="9"/>
@@ -19810,31 +19816,31 @@
       <c r="BJ94" s="9"/>
       <c r="BK94" s="9"/>
       <c r="BL94" s="9" t="s">
-        <v>397</v>
+        <v>149</v>
       </c>
       <c r="BM94" s="9" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="BN94" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="BO94" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="BP94" s="9" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="BQ94" s="9" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="BR94" s="9" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="BS94" s="9" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="95" spans="2:71" ht="202.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
         <v>83</v>
       </c>
@@ -19842,13 +19848,13 @@
         <v>84</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>106</v>
@@ -19857,10 +19863,10 @@
         <v>88</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K95" s="9" t="s">
         <v>52</v>
@@ -19875,33 +19881,33 @@
         <v>52</v>
       </c>
       <c r="O95" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P95" s="11" t="s">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="Q95" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="R95" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="S95" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="R95" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S95" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="T95" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U95" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="V95" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="W95" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X95" s="9" t="s">
+      <c r="T95" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U95" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="V95" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="W95" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="X95" s="17" t="s">
         <v>93</v>
       </c>
       <c r="Y95" s="9" t="s">
@@ -19988,9 +19994,7 @@
       <c r="AZ95" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA95" s="9" t="s">
-        <v>390</v>
-      </c>
+      <c r="BA95" s="9"/>
       <c r="BB95" s="13"/>
       <c r="BC95" s="9"/>
       <c r="BD95" s="9"/>
@@ -20004,31 +20008,31 @@
       <c r="BJ95" s="9"/>
       <c r="BK95" s="9"/>
       <c r="BL95" s="9" t="s">
-        <v>398</v>
+        <v>149</v>
       </c>
       <c r="BM95" s="9" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="BN95" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="BO95" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="BP95" s="9" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="BQ95" s="9" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="BR95" s="9" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="BS95" s="9" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="96" spans="2:71" ht="90" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B96" s="9" t="s">
         <v>83</v>
       </c>
@@ -20036,13 +20040,13 @@
         <v>84</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>106</v>
@@ -20051,10 +20055,10 @@
         <v>88</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K96" s="9" t="s">
         <v>52</v>
@@ -20069,33 +20073,33 @@
         <v>52</v>
       </c>
       <c r="O96" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P96" s="11" t="s">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="Q96" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="R96" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="S96" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="R96" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S96" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="T96" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U96" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="V96" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="W96" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X96" s="9" t="s">
+      <c r="T96" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U96" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="V96" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="W96" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="X96" s="17" t="s">
         <v>93</v>
       </c>
       <c r="Y96" s="9" t="s">
@@ -20182,9 +20186,7 @@
       <c r="AZ96" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA96" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="BA96" s="9"/>
       <c r="BB96" s="13"/>
       <c r="BC96" s="9"/>
       <c r="BD96" s="9"/>
@@ -20198,31 +20200,31 @@
       <c r="BJ96" s="9"/>
       <c r="BK96" s="9"/>
       <c r="BL96" s="9" t="s">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="BM96" s="9" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="BN96" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="BO96" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="BP96" s="9" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="BQ96" s="9" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="BR96" s="9" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="BS96" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="97" spans="2:71" ht="157.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:71" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
         <v>83</v>
       </c>
@@ -20377,7 +20379,7 @@
         <v>88</v>
       </c>
       <c r="BA97" s="9" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="BB97" s="13"/>
       <c r="BC97" s="9"/>
@@ -20392,7 +20394,7 @@
       <c r="BJ97" s="9"/>
       <c r="BK97" s="9"/>
       <c r="BL97" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="BM97" s="9" t="s">
         <v>384</v>
@@ -20413,10 +20415,10 @@
         <v>242</v>
       </c>
       <c r="BS97" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="98" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:71" ht="202.5" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>83</v>
       </c>
@@ -20570,7 +20572,9 @@
       <c r="AZ98" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA98" s="9"/>
+      <c r="BA98" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="BB98" s="13"/>
       <c r="BC98" s="9"/>
       <c r="BD98" s="9"/>
@@ -20584,10 +20588,10 @@
       <c r="BJ98" s="9"/>
       <c r="BK98" s="9"/>
       <c r="BL98" s="9" t="s">
-        <v>176</v>
+        <v>398</v>
       </c>
       <c r="BM98" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="BN98" s="9" t="s">
         <v>113</v>
@@ -20605,10 +20609,10 @@
         <v>242</v>
       </c>
       <c r="BS98" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="99" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:71" ht="90" x14ac:dyDescent="0.3">
       <c r="B99" s="9" t="s">
         <v>83</v>
       </c>
@@ -20631,7 +20635,7 @@
         <v>88</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>166</v>
@@ -20649,13 +20653,13 @@
         <v>52</v>
       </c>
       <c r="O99" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P99" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q99" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R99" s="13" t="s">
         <v>92</v>
@@ -20703,10 +20707,10 @@
         <v>94</v>
       </c>
       <c r="AG99" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH99" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI99" s="9">
         <v>1</v>
@@ -20736,15 +20740,17 @@
         <v>92</v>
       </c>
       <c r="AR99" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AS99" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT99" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU99" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="AU99" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="AV99" s="9" t="s">
         <v>88</v>
       </c>
@@ -20761,7 +20767,7 @@
         <v>88</v>
       </c>
       <c r="BA99" s="9" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="BB99" s="13"/>
       <c r="BC99" s="9"/>
@@ -20776,31 +20782,31 @@
       <c r="BJ99" s="9"/>
       <c r="BK99" s="9"/>
       <c r="BL99" s="9" t="s">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="BM99" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN99" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO99" s="16" t="s">
-        <v>110</v>
+        <v>384</v>
+      </c>
+      <c r="BN99" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO99" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="BP99" s="9" t="s">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="BQ99" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BR99" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS99" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="100" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:71" ht="157.5" x14ac:dyDescent="0.3">
       <c r="B100" s="9" t="s">
         <v>83</v>
       </c>
@@ -20823,7 +20829,7 @@
         <v>88</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>166</v>
@@ -20841,13 +20847,13 @@
         <v>52</v>
       </c>
       <c r="O100" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P100" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q100" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R100" s="13" t="s">
         <v>92</v>
@@ -20895,10 +20901,10 @@
         <v>94</v>
       </c>
       <c r="AG100" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH100" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI100" s="9">
         <v>1</v>
@@ -20928,15 +20934,17 @@
         <v>92</v>
       </c>
       <c r="AR100" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AS100" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU100" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="AU100" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="AV100" s="9" t="s">
         <v>88</v>
       </c>
@@ -20953,7 +20961,7 @@
         <v>88</v>
       </c>
       <c r="BA100" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="BB100" s="13"/>
       <c r="BC100" s="9"/>
@@ -20968,31 +20976,31 @@
       <c r="BJ100" s="9"/>
       <c r="BK100" s="9"/>
       <c r="BL100" s="9" t="s">
-        <v>109</v>
+        <v>400</v>
       </c>
       <c r="BM100" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN100" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO100" s="16" t="s">
-        <v>110</v>
+        <v>384</v>
+      </c>
+      <c r="BN100" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO100" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="BP100" s="9" t="s">
-        <v>386</v>
+        <v>177</v>
       </c>
       <c r="BQ100" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BR100" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS100" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="101" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
         <v>83</v>
       </c>
@@ -21015,7 +21023,7 @@
         <v>88</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>166</v>
@@ -21033,13 +21041,13 @@
         <v>52</v>
       </c>
       <c r="O101" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P101" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q101" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R101" s="13" t="s">
         <v>92</v>
@@ -21087,10 +21095,10 @@
         <v>94</v>
       </c>
       <c r="AG101" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH101" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI101" s="9">
         <v>1</v>
@@ -21120,15 +21128,17 @@
         <v>92</v>
       </c>
       <c r="AR101" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AS101" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT101" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU101" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="AU101" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="AV101" s="9" t="s">
         <v>88</v>
       </c>
@@ -21144,9 +21154,7 @@
       <c r="AZ101" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA101" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="BA101" s="9"/>
       <c r="BB101" s="13"/>
       <c r="BC101" s="9"/>
       <c r="BD101" s="9"/>
@@ -21160,28 +21168,28 @@
       <c r="BJ101" s="9"/>
       <c r="BK101" s="9"/>
       <c r="BL101" s="9" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="BM101" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN101" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO101" s="16" t="s">
-        <v>110</v>
+        <v>383</v>
+      </c>
+      <c r="BN101" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO101" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="BP101" s="9" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="BQ101" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BR101" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS101" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
@@ -21337,7 +21345,7 @@
         <v>88</v>
       </c>
       <c r="BA102" s="9" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="BB102" s="13"/>
       <c r="BC102" s="9"/>
@@ -21364,7 +21372,7 @@
         <v>110</v>
       </c>
       <c r="BP102" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="BQ102" s="9" t="s">
         <v>174</v>
@@ -21373,7 +21381,7 @@
         <v>242</v>
       </c>
       <c r="BS102" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
@@ -21528,7 +21536,9 @@
       <c r="AZ103" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA103" s="9"/>
+      <c r="BA103" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="BB103" s="13"/>
       <c r="BC103" s="9"/>
       <c r="BD103" s="9"/>
@@ -21554,7 +21564,7 @@
         <v>110</v>
       </c>
       <c r="BP103" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BQ103" s="9" t="s">
         <v>174</v>
@@ -21563,7 +21573,7 @@
         <v>242</v>
       </c>
       <c r="BS103" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
@@ -21589,7 +21599,7 @@
         <v>88</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>166</v>
@@ -21607,13 +21617,13 @@
         <v>52</v>
       </c>
       <c r="O104" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P104" s="11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q104" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R104" s="13" t="s">
         <v>92</v>
@@ -21661,7 +21671,7 @@
         <v>94</v>
       </c>
       <c r="AG104" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH104" s="9">
         <v>1</v>
@@ -21694,13 +21704,13 @@
         <v>92</v>
       </c>
       <c r="AR104" s="9" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="AS104" s="9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AT104" s="9" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="AU104" s="14"/>
       <c r="AV104" s="9" t="s">
@@ -21719,7 +21729,7 @@
         <v>88</v>
       </c>
       <c r="BA104" s="9" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="BB104" s="13"/>
       <c r="BC104" s="9"/>
@@ -21734,28 +21744,28 @@
       <c r="BJ104" s="9"/>
       <c r="BK104" s="9"/>
       <c r="BL104" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="BM104" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="BN104" s="9">
-        <v>52</v>
-      </c>
-      <c r="BO104" s="9">
-        <v>5</v>
+        <v>109</v>
+      </c>
+      <c r="BM104" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN104" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO104" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP104" s="9" t="s">
-        <v>171</v>
+        <v>387</v>
       </c>
       <c r="BQ104" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BR104" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS104" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
@@ -21781,7 +21791,7 @@
         <v>88</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>166</v>
@@ -21799,13 +21809,13 @@
         <v>52</v>
       </c>
       <c r="O105" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P105" s="11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q105" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R105" s="13" t="s">
         <v>92</v>
@@ -21853,7 +21863,7 @@
         <v>94</v>
       </c>
       <c r="AG105" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH105" s="9">
         <v>1</v>
@@ -21886,13 +21896,13 @@
         <v>92</v>
       </c>
       <c r="AR105" s="9" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="AS105" s="9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AT105" s="9" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="AU105" s="14"/>
       <c r="AV105" s="9" t="s">
@@ -21911,7 +21921,7 @@
         <v>88</v>
       </c>
       <c r="BA105" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="BB105" s="13"/>
       <c r="BC105" s="9"/>
@@ -21926,28 +21936,28 @@
       <c r="BJ105" s="9"/>
       <c r="BK105" s="9"/>
       <c r="BL105" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="BM105" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN105" s="9">
-        <v>52</v>
-      </c>
-      <c r="BO105" s="9">
-        <v>5</v>
+        <v>109</v>
+      </c>
+      <c r="BM105" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN105" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO105" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP105" s="9" t="s">
-        <v>171</v>
+        <v>387</v>
       </c>
       <c r="BQ105" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BR105" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS105" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
@@ -21973,7 +21983,7 @@
         <v>88</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J106" s="9" t="s">
         <v>166</v>
@@ -21991,13 +22001,13 @@
         <v>52</v>
       </c>
       <c r="O106" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P106" s="11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q106" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R106" s="13" t="s">
         <v>92</v>
@@ -22045,7 +22055,7 @@
         <v>94</v>
       </c>
       <c r="AG106" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH106" s="9">
         <v>1</v>
@@ -22078,13 +22088,13 @@
         <v>92</v>
       </c>
       <c r="AR106" s="9" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="AS106" s="9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AT106" s="9" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="AU106" s="14"/>
       <c r="AV106" s="9" t="s">
@@ -22102,9 +22112,7 @@
       <c r="AZ106" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA106" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="BA106" s="9"/>
       <c r="BB106" s="13"/>
       <c r="BC106" s="9"/>
       <c r="BD106" s="9"/>
@@ -22118,28 +22126,28 @@
       <c r="BJ106" s="9"/>
       <c r="BK106" s="9"/>
       <c r="BL106" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="BM106" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN106" s="9">
-        <v>52</v>
-      </c>
-      <c r="BO106" s="9">
-        <v>5</v>
+        <v>109</v>
+      </c>
+      <c r="BM106" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN106" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO106" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="BP106" s="9" t="s">
-        <v>171</v>
+        <v>388</v>
       </c>
       <c r="BQ106" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BR106" s="9" t="s">
         <v>242</v>
       </c>
       <c r="BS106" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
@@ -22295,7 +22303,7 @@
         <v>88</v>
       </c>
       <c r="BA107" s="9" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="BB107" s="13"/>
       <c r="BC107" s="9"/>
@@ -22313,7 +22321,7 @@
         <v>169</v>
       </c>
       <c r="BM107" s="15" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="BN107" s="9">
         <v>52</v>
@@ -22331,7 +22339,7 @@
         <v>242</v>
       </c>
       <c r="BS107" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
@@ -22486,7 +22494,9 @@
       <c r="AZ108" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA108" s="9"/>
+      <c r="BA108" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="BB108" s="13"/>
       <c r="BC108" s="9"/>
       <c r="BD108" s="9"/>
@@ -22521,10 +22531,10 @@
         <v>242</v>
       </c>
       <c r="BS108" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="109" spans="2:71" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B109" s="9" t="s">
         <v>83</v>
       </c>
@@ -22538,19 +22548,19 @@
         <v>165</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="K109" s="9" t="s">
         <v>52</v>
@@ -22565,13 +22575,13 @@
         <v>52</v>
       </c>
       <c r="O109" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P109" s="11" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="Q109" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="R109" s="13" t="s">
         <v>92</v>
@@ -22677,7 +22687,7 @@
         <v>88</v>
       </c>
       <c r="BA109" s="9" t="s">
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="BB109" s="13"/>
       <c r="BC109" s="9"/>
@@ -22692,7 +22702,7 @@
       <c r="BJ109" s="9"/>
       <c r="BK109" s="9"/>
       <c r="BL109" s="9" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="BM109" s="15" t="s">
         <v>170</v>
@@ -22704,17 +22714,19 @@
         <v>5</v>
       </c>
       <c r="BP109" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="BQ109" s="9" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="BR109" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="BS109" s="9"/>
+        <v>242</v>
+      </c>
+      <c r="BS109" s="9" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="110" spans="2:71" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B110" s="9" t="s">
         <v>83</v>
       </c>
@@ -22728,19 +22740,19 @@
         <v>165</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K110" s="9" t="s">
         <v>52</v>
@@ -22755,13 +22767,13 @@
         <v>52</v>
       </c>
       <c r="O110" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P110" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q110" s="12" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="R110" s="13" t="s">
         <v>92</v>
@@ -22812,7 +22824,7 @@
         <v>2</v>
       </c>
       <c r="AH110" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI110" s="9">
         <v>1</v>
@@ -22842,7 +22854,7 @@
         <v>92</v>
       </c>
       <c r="AR110" s="9" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AS110" s="9" t="s">
         <v>120</v>
@@ -22867,7 +22879,7 @@
         <v>88</v>
       </c>
       <c r="BA110" s="9" t="s">
-        <v>269</v>
+        <v>392</v>
       </c>
       <c r="BB110" s="13"/>
       <c r="BC110" s="9"/>
@@ -22882,29 +22894,31 @@
       <c r="BJ110" s="9"/>
       <c r="BK110" s="9"/>
       <c r="BL110" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM110" s="9" t="s">
-        <v>183</v>
+        <v>169</v>
+      </c>
+      <c r="BM110" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="BN110" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="BO110" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BP110" s="9" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="BQ110" s="9" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="BR110" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="BS110" s="9"/>
+        <v>242</v>
+      </c>
+      <c r="BS110" s="9" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="111" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:71" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B111" s="9" t="s">
         <v>83</v>
       </c>
@@ -22918,19 +22932,19 @@
         <v>165</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>52</v>
@@ -22945,13 +22959,13 @@
         <v>52</v>
       </c>
       <c r="O111" s="10" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P111" s="11" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="Q111" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="R111" s="13" t="s">
         <v>92</v>
@@ -23002,7 +23016,7 @@
         <v>2</v>
       </c>
       <c r="AH111" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI111" s="9">
         <v>1</v>
@@ -23032,10 +23046,10 @@
         <v>92</v>
       </c>
       <c r="AR111" s="9" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="AS111" s="9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="AT111" s="9" t="s">
         <v>97</v>
@@ -23056,9 +23070,7 @@
       <c r="AZ111" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA111" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="BA111" s="9"/>
       <c r="BB111" s="13"/>
       <c r="BC111" s="9"/>
       <c r="BD111" s="9"/>
@@ -23072,29 +23084,31 @@
       <c r="BJ111" s="9"/>
       <c r="BK111" s="9"/>
       <c r="BL111" s="9" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="BM111" s="15" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="BN111" s="9">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="BO111" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BP111" s="9" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="BQ111" s="9" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="BR111" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="BS111" s="9"/>
+        <v>242</v>
+      </c>
+      <c r="BS111" s="9" t="s">
+        <v>255</v>
+      </c>
     </row>
-    <row r="112" spans="2:71" ht="185.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:71" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9" t="s">
         <v>83</v>
       </c>
@@ -23102,10 +23116,10 @@
         <v>84</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>87</v>
@@ -23117,10 +23131,10 @@
         <v>88</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K112" s="9" t="s">
         <v>52</v>
@@ -23135,13 +23149,13 @@
         <v>52</v>
       </c>
       <c r="O112" s="10" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="Q112" s="12" t="s">
-        <v>201</v>
+        <v>359</v>
       </c>
       <c r="R112" s="13" t="s">
         <v>92</v>
@@ -23192,7 +23206,7 @@
         <v>2</v>
       </c>
       <c r="AH112" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI112" s="9">
         <v>1</v>
@@ -23222,10 +23236,10 @@
         <v>92</v>
       </c>
       <c r="AR112" s="9" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="AS112" s="9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="AT112" s="9" t="s">
         <v>97</v>
@@ -23247,7 +23261,7 @@
         <v>88</v>
       </c>
       <c r="BA112" s="9" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="BB112" s="13"/>
       <c r="BC112" s="9"/>
@@ -23262,29 +23276,29 @@
       <c r="BJ112" s="9"/>
       <c r="BK112" s="9"/>
       <c r="BL112" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="BM112" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="BN112" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO112" s="9" t="s">
-        <v>132</v>
+        <v>188</v>
+      </c>
+      <c r="BM112" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN112" s="9">
+        <v>52</v>
+      </c>
+      <c r="BO112" s="9">
+        <v>5</v>
       </c>
       <c r="BP112" s="9" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="BQ112" s="9" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="BR112" s="9" t="s">
         <v>241</v>
       </c>
       <c r="BS112" s="9"/>
     </row>
-    <row r="113" spans="2:71" ht="135" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:71" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9" t="s">
         <v>83</v>
       </c>
@@ -23292,10 +23306,10 @@
         <v>84</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>87</v>
@@ -23307,10 +23321,10 @@
         <v>88</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="K113" s="9" t="s">
         <v>52</v>
@@ -23325,13 +23339,13 @@
         <v>52</v>
       </c>
       <c r="O113" s="10" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="Q113" s="12" t="s">
-        <v>208</v>
+        <v>362</v>
       </c>
       <c r="R113" s="13" t="s">
         <v>92</v>
@@ -23412,10 +23426,10 @@
         <v>92</v>
       </c>
       <c r="AR113" s="9" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="AS113" s="9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="AT113" s="9" t="s">
         <v>97</v>
@@ -23437,7 +23451,7 @@
         <v>88</v>
       </c>
       <c r="BA113" s="9" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="BB113" s="13"/>
       <c r="BC113" s="9"/>
@@ -23452,22 +23466,22 @@
       <c r="BJ113" s="9"/>
       <c r="BK113" s="9"/>
       <c r="BL113" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="BM113" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="BN113" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO113" s="9" t="s">
-        <v>132</v>
+        <v>183</v>
+      </c>
+      <c r="BN113" s="9">
+        <v>12</v>
+      </c>
+      <c r="BO113" s="9">
+        <v>2</v>
       </c>
       <c r="BP113" s="9" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="BQ113" s="9" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="BR113" s="9" t="s">
         <v>241</v>
@@ -23482,10 +23496,10 @@
         <v>84</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>87</v>
@@ -23497,10 +23511,10 @@
         <v>88</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K114" s="9" t="s">
         <v>52</v>
@@ -23515,13 +23529,13 @@
         <v>52</v>
       </c>
       <c r="O114" s="10" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="Q114" s="12" t="s">
-        <v>212</v>
+        <v>363</v>
       </c>
       <c r="R114" s="13" t="s">
         <v>92</v>
@@ -23602,7 +23616,7 @@
         <v>92</v>
       </c>
       <c r="AR114" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AS114" s="9" t="s">
         <v>96</v>
@@ -23642,29 +23656,29 @@
       <c r="BJ114" s="9"/>
       <c r="BK114" s="9"/>
       <c r="BL114" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="BM114" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BN114" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO114" s="9" t="s">
-        <v>132</v>
+        <v>193</v>
+      </c>
+      <c r="BM114" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN114" s="9">
+        <v>4</v>
+      </c>
+      <c r="BO114" s="9">
+        <v>2</v>
       </c>
       <c r="BP114" s="9" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="BQ114" s="9" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="BR114" s="9" t="s">
         <v>241</v>
       </c>
       <c r="BS114" s="9"/>
     </row>
-    <row r="115" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:71" ht="185.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9" t="s">
         <v>83</v>
       </c>
@@ -23687,10 +23701,10 @@
         <v>88</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K115" s="9" t="s">
         <v>52</v>
@@ -23705,13 +23719,13 @@
         <v>52</v>
       </c>
       <c r="O115" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P115" s="11" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="Q115" s="12" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="R115" s="13" t="s">
         <v>92</v>
@@ -23835,26 +23849,26 @@
         <v>202</v>
       </c>
       <c r="BM115" s="9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="BN115" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="BO115" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="BP115" s="9" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="BQ115" s="9" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="BR115" s="9" t="s">
         <v>241</v>
       </c>
       <c r="BS115" s="9"/>
     </row>
-    <row r="116" spans="2:71" ht="90" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:71" ht="135" x14ac:dyDescent="0.3">
       <c r="B116" s="9" t="s">
         <v>83</v>
       </c>
@@ -23862,25 +23876,25 @@
         <v>84</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="K116" s="9" t="s">
         <v>52</v>
@@ -23895,13 +23909,13 @@
         <v>52</v>
       </c>
       <c r="O116" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P116" s="11" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Q116" s="12" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="R116" s="13" t="s">
         <v>92</v>
@@ -23949,7 +23963,7 @@
         <v>94</v>
       </c>
       <c r="AG116" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH116" s="9">
         <v>0</v>
@@ -23982,13 +23996,13 @@
         <v>92</v>
       </c>
       <c r="AR116" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AS116" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT116" s="9" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="AU116" s="14"/>
       <c r="AV116" s="9" t="s">
@@ -24007,7 +24021,7 @@
         <v>88</v>
       </c>
       <c r="BA116" s="9" t="s">
-        <v>393</v>
+        <v>87</v>
       </c>
       <c r="BB116" s="13"/>
       <c r="BC116" s="9"/>
@@ -24022,29 +24036,29 @@
       <c r="BJ116" s="9"/>
       <c r="BK116" s="9"/>
       <c r="BL116" s="9" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="BM116" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN116" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO116" s="16" t="s">
-        <v>110</v>
+        <v>203</v>
+      </c>
+      <c r="BN116" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO116" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="BP116" s="9" t="s">
-        <v>394</v>
+        <v>209</v>
       </c>
       <c r="BQ116" s="9" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="BR116" s="9" t="s">
         <v>241</v>
       </c>
       <c r="BS116" s="9"/>
     </row>
-    <row r="117" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:71" ht="78.75" x14ac:dyDescent="0.3">
       <c r="B117" s="9" t="s">
         <v>83</v>
       </c>
@@ -24052,25 +24066,25 @@
         <v>84</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="K117" s="9" t="s">
         <v>52</v>
@@ -24085,13 +24099,13 @@
         <v>52</v>
       </c>
       <c r="O117" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P117" s="11" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="Q117" s="12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="R117" s="13" t="s">
         <v>92</v>
@@ -24139,7 +24153,7 @@
         <v>94</v>
       </c>
       <c r="AG117" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH117" s="9">
         <v>0</v>
@@ -24172,26 +24186,32 @@
         <v>92</v>
       </c>
       <c r="AR117" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AS117" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT117" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU117" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV117" s="9"/>
-      <c r="AW117" s="9"/>
-      <c r="AX117" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="AU117" s="14"/>
+      <c r="AV117" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW117" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX117" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AY117" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ117" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="AZ117" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="BA117" s="9" t="s">
-        <v>393</v>
+        <v>87</v>
       </c>
       <c r="BB117" s="13"/>
       <c r="BC117" s="9"/>
@@ -24204,33 +24224,31 @@
         <v>52</v>
       </c>
       <c r="BJ117" s="9"/>
-      <c r="BK117" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="BK117" s="9"/>
       <c r="BL117" s="9" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="BM117" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN117" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO117" s="16" t="s">
-        <v>110</v>
+        <v>213</v>
+      </c>
+      <c r="BN117" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO117" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="BP117" s="9" t="s">
-        <v>395</v>
+        <v>214</v>
       </c>
       <c r="BQ117" s="9" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="BR117" s="9" t="s">
         <v>241</v>
       </c>
       <c r="BS117" s="9"/>
     </row>
-    <row r="118" spans="2:71" ht="90" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B118" s="9" t="s">
         <v>83</v>
       </c>
@@ -24238,25 +24256,25 @@
         <v>84</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="H118" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="K118" s="9" t="s">
         <v>52</v>
@@ -24271,13 +24289,13 @@
         <v>52</v>
       </c>
       <c r="O118" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="Q118" s="12" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="R118" s="13" t="s">
         <v>92</v>
@@ -24366,9 +24384,7 @@
       <c r="AT118" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AU118" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="AU118" s="14"/>
       <c r="AV118" s="9" t="s">
         <v>88</v>
       </c>
@@ -24385,7 +24401,7 @@
         <v>88</v>
       </c>
       <c r="BA118" s="9" t="s">
-        <v>393</v>
+        <v>87</v>
       </c>
       <c r="BB118" s="13"/>
       <c r="BC118" s="9"/>
@@ -24400,29 +24416,29 @@
       <c r="BJ118" s="9"/>
       <c r="BK118" s="9"/>
       <c r="BL118" s="9" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="BM118" s="9" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="BN118" s="9" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="BO118" s="9" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="BP118" s="9" t="s">
-        <v>396</v>
+        <v>218</v>
       </c>
       <c r="BQ118" s="9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="BR118" s="9" t="s">
         <v>241</v>
       </c>
       <c r="BS118" s="9"/>
     </row>
-    <row r="119" spans="2:71" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:71" ht="90" x14ac:dyDescent="0.3">
       <c r="B119" s="9" t="s">
         <v>83</v>
       </c>
@@ -24430,25 +24446,25 @@
         <v>84</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="K119" s="9" t="s">
         <v>52</v>
@@ -24463,13 +24479,13 @@
         <v>52</v>
       </c>
       <c r="O119" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P119" s="11" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="Q119" s="12" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="R119" s="13" t="s">
         <v>92</v>
@@ -24517,7 +24533,7 @@
         <v>94</v>
       </c>
       <c r="AG119" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH119" s="9">
         <v>0</v>
@@ -24550,13 +24566,13 @@
         <v>92</v>
       </c>
       <c r="AR119" s="9" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="AS119" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AT119" s="9" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="AU119" s="14"/>
       <c r="AV119" s="9" t="s">
@@ -24575,7 +24591,7 @@
         <v>88</v>
       </c>
       <c r="BA119" s="9" t="s">
-        <v>87</v>
+        <v>393</v>
       </c>
       <c r="BB119" s="13"/>
       <c r="BC119" s="9"/>
@@ -24583,40 +24599,625 @@
       <c r="BE119" s="9"/>
       <c r="BF119" s="9"/>
       <c r="BG119" s="9"/>
-      <c r="BH119" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="BH119" s="9"/>
       <c r="BI119" s="9" t="s">
         <v>52</v>
       </c>
       <c r="BJ119" s="9"/>
       <c r="BK119" s="9"/>
       <c r="BL119" s="9" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="BM119" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="BN119" s="9">
-        <v>4</v>
-      </c>
-      <c r="BO119" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP119" s="18" t="s">
-        <v>239</v>
+        <v>88</v>
+      </c>
+      <c r="BN119" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO119" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP119" s="9" t="s">
+        <v>394</v>
       </c>
       <c r="BQ119" s="9" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="BR119" s="9" t="s">
         <v>241</v>
       </c>
       <c r="BS119" s="9"/>
     </row>
+    <row r="120" spans="2:71" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B120" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O120" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="P120" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q120" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="R120" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S120" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T120" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U120" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="V120" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W120" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X120" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF120" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG120" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH120" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI120" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ120" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK120" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL120" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM120" s="9">
+        <v>2</v>
+      </c>
+      <c r="AN120" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO120" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP120" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ120" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR120" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS120" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT120" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU120" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV120" s="9"/>
+      <c r="AW120" s="9"/>
+      <c r="AX120" s="9"/>
+      <c r="AY120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ120" s="10"/>
+      <c r="BA120" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="BB120" s="13"/>
+      <c r="BC120" s="9"/>
+      <c r="BD120" s="9"/>
+      <c r="BE120" s="9"/>
+      <c r="BF120" s="9"/>
+      <c r="BG120" s="9"/>
+      <c r="BH120" s="9"/>
+      <c r="BI120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ120" s="9"/>
+      <c r="BK120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL120" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM120" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN120" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO120" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP120" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="BQ120" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="BR120" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="BS120" s="9"/>
+    </row>
+    <row r="121" spans="2:71" ht="90" x14ac:dyDescent="0.3">
+      <c r="B121" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O121" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="P121" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q121" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="R121" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S121" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T121" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U121" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="V121" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W121" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X121" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF121" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG121" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH121" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI121" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ121" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK121" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL121" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM121" s="9">
+        <v>2</v>
+      </c>
+      <c r="AN121" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO121" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP121" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ121" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR121" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS121" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT121" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU121" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV121" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW121" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX121" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY121" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ121" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA121" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="BB121" s="13"/>
+      <c r="BC121" s="9"/>
+      <c r="BD121" s="9"/>
+      <c r="BE121" s="9"/>
+      <c r="BF121" s="9"/>
+      <c r="BG121" s="9"/>
+      <c r="BH121" s="9"/>
+      <c r="BI121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ121" s="9"/>
+      <c r="BK121" s="9"/>
+      <c r="BL121" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM121" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN121" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO121" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP121" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="BQ121" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR121" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="BS121" s="9"/>
+    </row>
+    <row r="122" spans="2:71" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B122" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O122" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="P122" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q122" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="R122" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S122" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T122" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U122" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="V122" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W122" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X122" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF122" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG122" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH122" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI122" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ122" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK122" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL122" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM122" s="9">
+        <v>2</v>
+      </c>
+      <c r="AN122" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO122" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP122" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ122" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR122" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AS122" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT122" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU122" s="14"/>
+      <c r="AV122" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW122" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX122" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY122" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ122" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA122" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB122" s="13"/>
+      <c r="BC122" s="9"/>
+      <c r="BD122" s="9"/>
+      <c r="BE122" s="9"/>
+      <c r="BF122" s="9"/>
+      <c r="BG122" s="9"/>
+      <c r="BH122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ122" s="9"/>
+      <c r="BK122" s="9"/>
+      <c r="BL122" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="BM122" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="BN122" s="9">
+        <v>4</v>
+      </c>
+      <c r="BO122" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP122" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ122" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="BR122" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="BS122" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:BQ119" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A7:BQ122" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="33">
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BK5"/>
+    <mergeCell ref="BL5:BM5"/>
+    <mergeCell ref="BN5:BO5"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AV5:BA5"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AG5:AP5"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="BR5:BS5"/>
     <mergeCell ref="B5:C5"/>
@@ -24633,39 +25234,22 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AG5:AP5"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AV5:BA5"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="BL5:BM5"/>
-    <mergeCell ref="BN5:BO5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:AE119 K8:N119 BH8:BK119" xr:uid="{E438DC6F-5D65-4DBC-AA2B-3886782F22D6}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BH8:BK122 K8:N122 Y8:AE122" xr:uid="{E438DC6F-5D65-4DBC-AA2B-3886782F22D6}">
       <formula1>"V"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AS8:AS119" xr:uid="{EF5DE178-31F7-4AD7-A3FD-16322270A6F7}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AS8:AS122" xr:uid="{EF5DE178-31F7-4AD7-A3FD-16322270A6F7}">
       <formula1>"예방,적발"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AP8:AP119" xr:uid="{28AE88AB-AAC2-4634-96FA-9BEDCB92B107}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AP8:AP122" xr:uid="{28AE88AB-AAC2-4634-96FA-9BEDCB92B107}">
       <formula1>"H,M,L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8:AQ119 R8:X119" xr:uid="{D469A19A-1D4F-4A7D-91B8-CA09071C5E14}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R8:X122 AQ8:AQ122" xr:uid="{D469A19A-1D4F-4A7D-91B8-CA09071C5E14}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AT8:AT119" xr:uid="{878EDAEA-F931-4585-987F-40A104148A53}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AT8:AT122" xr:uid="{878EDAEA-F931-4585-987F-40A104148A53}">
       <formula1>"Manual,Auto,ITDM"</formula1>
     </dataValidation>
   </dataValidations>
